--- a/dispositivos_salazar.xlsx
+++ b/dispositivos_salazar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bba10fbad86b510/Documentos/UNI/TRABAJOS/Programación de Redes/GIT LEARNING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{418D6AC2-CB48-41F0-B489-EE56930361C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3CA7D6-9CFE-4584-B38C-9F79C149DF75}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{418D6AC2-CB48-41F0-B489-EE56930361C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF9324DF-C78C-486A-98E5-EF619EE9AEF1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,34 +37,34 @@
     <t>CISCO2901/K9</t>
   </si>
   <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>puerto</t>
+  </si>
+  <si>
+    <t>baudios</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contrasena</t>
+  </si>
+  <si>
+    <t>dominio</t>
+  </si>
+  <si>
+    <t>COM8</t>
+  </si>
+  <si>
     <t>FTX153782SQ</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>puerto</t>
-  </si>
-  <si>
-    <t>baudios</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>contrasena</t>
-  </si>
-  <si>
-    <t>dominio</t>
-  </si>
-  <si>
-    <t>COM7</t>
   </si>
 </sst>
 </file>
@@ -447,36 +447,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -484,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>9600</v>

--- a/dispositivos_salazar.xlsx
+++ b/dispositivos_salazar.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bba10fbad86b510/Documentos/UNI/TRABAJOS/Programación de Redes/GIT LEARNING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{418D6AC2-CB48-41F0-B489-EE56930361C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF9324DF-C78C-486A-98E5-EF619EE9AEF1}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{418D6AC2-CB48-41F0-B489-EE56930361C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C77194-C69F-46F4-AF93-B80F48070592}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>RouterPrueba</t>
   </si>
@@ -61,17 +74,35 @@
     <t>dominio</t>
   </si>
   <si>
-    <t>COM8</t>
-  </si>
-  <si>
     <t>FTX153782SQ</t>
+  </si>
+  <si>
+    <t>FTX144582PJ</t>
+  </si>
+  <si>
+    <t>FTX144583KT</t>
+  </si>
+  <si>
+    <t>cisco</t>
+  </si>
+  <si>
+    <t>brandon_PELON</t>
+  </si>
+  <si>
+    <t>moni.local</t>
+  </si>
+  <si>
+    <t>COM7</t>
+  </si>
+  <si>
+    <t>R_FTX144582PJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +122,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,12 +168,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,13 +487,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -480,35 +528,157 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9600</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
+      <c r="C3" s="2" t="str">
+        <f>C2</f>
+        <v>COM7</v>
+      </c>
+      <c r="D3" s="2">
         <v>9600</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>C2</f>
+        <v>COM7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9600</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>